--- a/examples/source2/2.여러개의 엑셀 발주수량 합치기/통합.xlsx
+++ b/examples/source2/2.여러개의 엑셀 발주수량 합치기/통합.xlsx
@@ -14,27 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>수량</t>
   </si>
   <si>
     <t>물품</t>
-  </si>
-  <si>
-    <t>A4용지</t>
-  </si>
-  <si>
-    <t>볼펜</t>
-  </si>
-  <si>
-    <t>연필</t>
-  </si>
-  <si>
-    <t>자</t>
-  </si>
-  <si>
-    <t>필통</t>
   </si>
 </sst>
 </file>
@@ -392,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -406,46 +391,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
